--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/CorpusLinguistics/NTNU_ENC2036/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4C7895-D8D6-DD43-ADE4-F09B4B4A4827}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127A31A2-9B57-2349-881C-D01370A1B690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="48520" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Week</t>
   </si>
@@ -97,43 +97,46 @@
     <t>Corpus Linguistics: Fundamentals</t>
   </si>
   <si>
-    <t>Scientific Method and Hypothesis formulating</t>
-  </si>
-  <si>
-    <t>Query language</t>
-  </si>
-  <si>
-    <t>Data Retrieval and Coding</t>
-  </si>
-  <si>
-    <t>Quantifying Research Questions</t>
-  </si>
-  <si>
-    <t>Significance Testing</t>
-  </si>
-  <si>
-    <t>Corpus Creation I: Design, Method, Formats</t>
-  </si>
-  <si>
-    <t>Corpus Creation II: Web Crawler</t>
-  </si>
-  <si>
-    <t>Case Studies: Language Learning</t>
-  </si>
-  <si>
-    <t>Case Studies: Social Variation</t>
-  </si>
-  <si>
-    <t>Case Studies: Collocation &amp; Lexical Semantics</t>
-  </si>
-  <si>
-    <t>Research Project Presentation I</t>
-  </si>
-  <si>
-    <t>Research Project Presentation II</t>
-  </si>
-  <si>
-    <t>Final Project Report Submission</t>
+    <t>Final Exam</t>
+  </si>
+  <si>
+    <t>R Fundamentals I</t>
+  </si>
+  <si>
+    <t>R Fundamentals II</t>
+  </si>
+  <si>
+    <t>Concordances, Frequency Lists, Collocations</t>
+  </si>
+  <si>
+    <t>Tokenization</t>
+  </si>
+  <si>
+    <t>Parts-of-Speech Tagging</t>
+  </si>
+  <si>
+    <t>Data Retrieval and Coding: Regular Expressions</t>
+  </si>
+  <si>
+    <t>Data Retrieval and Coding: Experimental Design</t>
+  </si>
+  <si>
+    <t>Keyword Analysis</t>
+  </si>
+  <si>
+    <t>Chinese Text Analytics</t>
+  </si>
+  <si>
+    <t>N-grams and Lexical Bundles</t>
+  </si>
+  <si>
+    <t>Statistical Evaluation I: Significance Test</t>
+  </si>
+  <si>
+    <t>Statistical Evaluation II: Case Studies</t>
+  </si>
+  <si>
+    <t>Data Collection and Corpus Creation: HTML and Web Crawler</t>
   </si>
 </sst>
 </file>
@@ -985,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FA07D-2A42-E94B-8539-FAD2BC0C0F5A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1040,7 @@
         <v>43892</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1048,7 +1051,7 @@
         <v>43899</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1060,7 +1063,7 @@
         <v>43906</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1071,7 +1074,7 @@
         <v>43913</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1082,7 +1085,7 @@
         <v>43920</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1115,7 +1118,7 @@
         <v>43941</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1127,7 +1130,7 @@
         <v>43948</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1139,7 +1142,7 @@
         <v>43955</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1151,7 +1154,7 @@
         <v>43962</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1163,7 +1166,7 @@
         <v>43969</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1175,7 +1178,7 @@
         <v>43976</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1187,7 +1190,7 @@
         <v>43983</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1198,7 +1201,7 @@
         <v>43990</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1209,7 +1212,7 @@
         <v>43997</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/CorpusLinguistics/NTNU_ENC2036/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127A31A2-9B57-2349-881C-D01370A1B690}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C225DABC-B3DE-7340-8E50-B111CC89FB99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="48520" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -989,7 +989,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/CorpusLinguistics/NTNU_ENC2036/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C225DABC-B3DE-7340-8E50-B111CC89FB99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79BE4F1-9AB4-8742-A2BC-ADC489324A1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="48520" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,22 +121,22 @@
     <t>Data Retrieval and Coding: Experimental Design</t>
   </si>
   <si>
-    <t>Keyword Analysis</t>
-  </si>
-  <si>
     <t>Chinese Text Analytics</t>
   </si>
   <si>
-    <t>N-grams and Lexical Bundles</t>
-  </si>
-  <si>
-    <t>Statistical Evaluation I: Significance Test</t>
-  </si>
-  <si>
-    <t>Statistical Evaluation II: Case Studies</t>
-  </si>
-  <si>
     <t>Data Collection and Corpus Creation: HTML and Web Crawler</t>
+  </si>
+  <si>
+    <t>Inferential Statistics and Significance Test</t>
+  </si>
+  <si>
+    <t>Keywords and Lexical Bundles (N-grams)</t>
+  </si>
+  <si>
+    <t>Structured Corpora Processing</t>
+  </si>
+  <si>
+    <t>Multidimensional Vector-space Representation</t>
   </si>
 </sst>
 </file>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FA07D-2A42-E94B-8539-FAD2BC0C0F5A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1063,7 +1063,7 @@
         <v>43906</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1118,7 +1118,7 @@
         <v>43941</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1166,7 +1166,7 @@
         <v>43969</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1178,7 +1178,7 @@
         <v>43976</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1190,7 +1190,7 @@
         <v>43983</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1201,7 +1201,7 @@
         <v>43990</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/CorpusLinguistics/NTNU_ENC2036/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79BE4F1-9AB4-8742-A2BC-ADC489324A1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888B43D0-E36D-DF49-9B90-28A604D2FC05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="48520" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,10 +133,10 @@
     <t>Keywords and Lexical Bundles (N-grams)</t>
   </si>
   <si>
-    <t>Structured Corpora Processing</t>
-  </si>
-  <si>
     <t>Multidimensional Vector-space Representation</t>
+  </si>
+  <si>
+    <t>Structured Corpora Processing and XML</t>
   </si>
 </sst>
 </file>
@@ -989,7 +989,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1190,7 +1190,7 @@
         <v>43983</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1201,7 +1201,7 @@
         <v>43990</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/CorpusLinguistics/NTNU_ENC2036/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888B43D0-E36D-DF49-9B90-28A604D2FC05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B286E44-8CE2-7648-9270-976CAF5D4A4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="48520" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,12 +88,6 @@
     <t>Midterm Exam</t>
   </si>
   <si>
-    <t>Holiday</t>
-  </si>
-  <si>
-    <t>Orientation</t>
-  </si>
-  <si>
     <t>Corpus Linguistics: Fundamentals</t>
   </si>
   <si>
@@ -137,13 +131,19 @@
   </si>
   <si>
     <t>Structured Corpora Processing and XML</t>
+  </si>
+  <si>
+    <t>Project-based Assignment I</t>
+  </si>
+  <si>
+    <t>Project-based Assignment II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +274,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -620,7 +626,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -630,6 +636,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -989,7 +1001,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1015,10 +1027,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>43878</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>43892</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1026,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>43885</v>
+        <v>43899</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>24</v>
@@ -1037,10 +1049,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>43892</v>
+        <v>43906</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1048,10 +1060,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>43899</v>
+        <v>43913</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1060,21 +1072,21 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>43906</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>43920</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <v>43913</v>
+      <c r="B7" s="4">
+        <v>43927</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1082,10 +1094,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>43920</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>43934</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1093,10 +1105,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>43927</v>
+        <v>43941</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1104,10 +1116,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>43934</v>
+        <v>43948</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1115,10 +1127,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>43941</v>
+        <v>43955</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1127,7 +1139,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>43948</v>
+        <v>43962</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
@@ -1139,10 +1151,10 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>43955</v>
+        <v>43969</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1151,10 +1163,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>43962</v>
+        <v>43976</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1163,10 +1175,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>43969</v>
+        <v>43983</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1175,10 +1187,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>43976</v>
+        <v>43990</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1187,10 +1199,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>43983</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>43997</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1198,7 +1210,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>43990</v>
+        <v>44004</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>37</v>
@@ -1209,10 +1221,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="2">
-        <v>43997</v>
+        <v>44011</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/CorpusLinguistics/NTNU_ENC2036/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B286E44-8CE2-7648-9270-976CAF5D4A4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81731819-D139-9347-8EB3-A16D68B39FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="48520" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>Week 17</t>
   </si>
   <si>
-    <t>Midterm Exam</t>
-  </si>
-  <si>
     <t>Corpus Linguistics: Fundamentals</t>
   </si>
   <si>
@@ -100,43 +97,46 @@
     <t>R Fundamentals II</t>
   </si>
   <si>
-    <t>Concordances, Frequency Lists, Collocations</t>
-  </si>
-  <si>
-    <t>Tokenization</t>
-  </si>
-  <si>
-    <t>Parts-of-Speech Tagging</t>
-  </si>
-  <si>
     <t>Data Retrieval and Coding: Regular Expressions</t>
   </si>
   <si>
-    <t>Data Retrieval and Coding: Experimental Design</t>
-  </si>
-  <si>
     <t>Chinese Text Analytics</t>
   </si>
   <si>
     <t>Data Collection and Corpus Creation: HTML and Web Crawler</t>
   </si>
   <si>
-    <t>Inferential Statistics and Significance Test</t>
-  </si>
-  <si>
-    <t>Keywords and Lexical Bundles (N-grams)</t>
-  </si>
-  <si>
-    <t>Multidimensional Vector-space Representation</t>
-  </si>
-  <si>
-    <t>Structured Corpora Processing and XML</t>
-  </si>
-  <si>
     <t>Project-based Assignment I</t>
   </si>
   <si>
     <t>Project-based Assignment II</t>
+  </si>
+  <si>
+    <t>Midterm</t>
+  </si>
+  <si>
+    <t>Keywords Analysis</t>
+  </si>
+  <si>
+    <t>Concordances, Frequency Lists, N-grams, Collocations</t>
+  </si>
+  <si>
+    <t>Tokenization and Parts-of-speech Tagging</t>
+  </si>
+  <si>
+    <t>Constructions and Idioms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structured Corpora Processing </t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>Vector-space Representation</t>
+  </si>
+  <si>
+    <t>Chinese Word Segmentation</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1030,7 +1030,7 @@
         <v>43892</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1041,7 +1041,7 @@
         <v>43899</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1052,7 +1052,7 @@
         <v>43906</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1063,7 +1063,7 @@
         <v>43913</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1075,7 +1075,7 @@
         <v>43920</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1086,7 +1086,7 @@
         <v>43927</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1096,8 +1096,8 @@
       <c r="B8" s="2">
         <v>43934</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1107,8 +1107,8 @@
       <c r="B9" s="2">
         <v>43941</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1119,7 +1119,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1130,7 +1130,7 @@
         <v>43955</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1142,7 +1142,7 @@
         <v>43962</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1154,7 +1154,7 @@
         <v>43969</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1166,7 +1166,7 @@
         <v>43976</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="B15" s="2">
         <v>43983</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="1"/>
@@ -1190,7 +1190,7 @@
         <v>43990</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1202,7 +1202,7 @@
         <v>43997</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1213,7 +1213,7 @@
         <v>44004</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1224,7 +1224,7 @@
         <v>44011</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/CorpusLinguistics/NTNU_ENC2036/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvinchen/Dropbox/NTNU/CorpusLinguistics/NTNU_ENC2036/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81731819-D139-9347-8EB3-A16D68B39FE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9B1555-5E10-8045-BBBC-92B989BE8B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="48520" windowHeight="23400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Week</t>
   </si>
@@ -106,12 +106,6 @@
     <t>Data Collection and Corpus Creation: HTML and Web Crawler</t>
   </si>
   <si>
-    <t>Project-based Assignment I</t>
-  </si>
-  <si>
-    <t>Project-based Assignment II</t>
-  </si>
-  <si>
     <t>Midterm</t>
   </si>
   <si>
@@ -137,6 +131,9 @@
   </si>
   <si>
     <t>Chinese Word Segmentation</t>
+  </si>
+  <si>
+    <t>Final Project (make-up)</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +998,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1075,7 +1072,7 @@
         <v>43920</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1086,7 +1083,7 @@
         <v>43927</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1108,7 +1105,7 @@
         <v>43941</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1119,7 +1116,7 @@
         <v>43948</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1142,7 +1139,7 @@
         <v>43962</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1154,7 +1151,7 @@
         <v>43969</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1166,7 +1163,7 @@
         <v>43976</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1178,7 +1175,7 @@
         <v>43983</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1190,7 +1187,7 @@
         <v>43990</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1213,7 +1210,7 @@
         <v>44004</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1224,7 +1221,7 @@
         <v>44011</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvinchen/Dropbox/NTNU/CorpusLinguistics/NTNU_ENC2036/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9B1555-5E10-8045-BBBC-92B989BE8B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4F1C62-94CC-E04C-AFE5-620980481215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Week</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Week 8</t>
   </si>
   <si>
-    <t>Week 18</t>
-  </si>
-  <si>
     <t>Week 9</t>
   </si>
   <si>
@@ -82,27 +79,12 @@
     <t>Week 16</t>
   </si>
   <si>
-    <t>Week 17</t>
-  </si>
-  <si>
-    <t>Corpus Linguistics: Fundamentals</t>
-  </si>
-  <si>
     <t>Final Exam</t>
   </si>
   <si>
-    <t>R Fundamentals I</t>
-  </si>
-  <si>
-    <t>R Fundamentals II</t>
-  </si>
-  <si>
     <t>Data Retrieval and Coding: Regular Expressions</t>
   </si>
   <si>
-    <t>Chinese Text Analytics</t>
-  </si>
-  <si>
     <t>Data Collection and Corpus Creation: HTML and Web Crawler</t>
   </si>
   <si>
@@ -130,17 +112,26 @@
     <t>Vector-space Representation</t>
   </si>
   <si>
-    <t>Chinese Word Segmentation</t>
-  </si>
-  <si>
-    <t>Final Project (make-up)</t>
+    <t>R Fundamentals</t>
+  </si>
+  <si>
+    <t>Chinese Text Analytics + Chinese Word Segmentation</t>
+  </si>
+  <si>
+    <t>Near-Synonyms and Distcintive Collexemes</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Quantitative Corpus Linguistics: A Primer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,12 +262,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -623,7 +608,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -633,9 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -998,7 +980,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1024,10 +1006,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>43892</v>
+        <v>44610</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1035,10 +1017,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>43899</v>
+        <v>44617</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1046,10 +1028,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>43906</v>
+        <v>44624</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1057,10 +1039,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>43913</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>44631</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1069,21 +1051,21 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>43920</v>
+        <v>44638</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
-        <v>43927</v>
+      <c r="B7" s="2">
+        <v>44645</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1091,10 +1073,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>43934</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1102,29 +1084,29 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>43941</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>44659</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
-        <v>43948</v>
+        <v>44666</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>43955</v>
+        <v>44673</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>26</v>
@@ -1133,96 +1115,84 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>43962</v>
+        <v>44680</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>43969</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>44687</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>43976</v>
+        <v>44694</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>43983</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>44701</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>43990</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>44708</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
-        <v>43997</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
+        <v>44715</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2">
-        <v>44004</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>44011</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
